--- a/data/GP/30034001/None/5_bc_param/Indata_GP_75_74_samples.xlsx
+++ b/data/GP/30034001/None/5_bc_param/Indata_GP_75_74_samples.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.478853696903366</v>
+        <v>4.395652899146148</v>
       </c>
       <c r="C2">
-        <v>0.978264192030636</v>
+        <v>1.061390990482535</v>
       </c>
       <c r="D2">
-        <v>2.171509897555592</v>
+        <v>2.070294079160796</v>
       </c>
       <c r="E2">
-        <v>0.03267464716856432</v>
+        <v>0.0462301213317453</v>
       </c>
       <c r="F2">
-        <v>1.386238960819974</v>
+        <v>1.202644674589147</v>
       </c>
       <c r="G2">
-        <v>1663544.949565046</v>
+        <v>1644398.660031027</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.13254627434109</v>
+        <v>2.16668655998883</v>
       </c>
       <c r="C3">
-        <v>1.003037230590627</v>
+        <v>1.251072618466173</v>
       </c>
       <c r="D3">
-        <v>2.768383832695688</v>
+        <v>1.353840877480362</v>
       </c>
       <c r="E3">
-        <v>0.03105883196277553</v>
+        <v>0.04999287777258417</v>
       </c>
       <c r="F3">
-        <v>1.038780646405852</v>
+        <v>1.27725083870632</v>
       </c>
       <c r="G3">
-        <v>1878302.292143939</v>
+        <v>997189.981401792</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.42374872672175</v>
+        <v>3.951357498775182</v>
       </c>
       <c r="C4">
-        <v>1.053966147560067</v>
+        <v>1.230438302968194</v>
       </c>
       <c r="D4">
-        <v>1.028206797789653</v>
+        <v>1.199996320424814</v>
       </c>
       <c r="E4">
-        <v>0.04068898348797343</v>
+        <v>0.04539929183617965</v>
       </c>
       <c r="F4">
-        <v>1.445545791925236</v>
+        <v>1.10704108574303</v>
       </c>
       <c r="G4">
-        <v>888131.0082195536</v>
+        <v>1628575.826140112</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.659510669032103</v>
+        <v>3.775401139833322</v>
       </c>
       <c r="C5">
-        <v>1.232006377628288</v>
+        <v>1.11778342242469</v>
       </c>
       <c r="D5">
-        <v>2.237029145676425</v>
+        <v>2.749024246594677</v>
       </c>
       <c r="E5">
-        <v>0.0389741419930373</v>
+        <v>0.03744593293503472</v>
       </c>
       <c r="F5">
-        <v>0.8412383397132173</v>
+        <v>1.135968490350923</v>
       </c>
       <c r="G5">
-        <v>1703028.970558067</v>
+        <v>1858021.984118066</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.311015037949296</v>
+        <v>3.654507714734375</v>
       </c>
       <c r="C6">
-        <v>1.145417544969105</v>
+        <v>1.122306743805695</v>
       </c>
       <c r="D6">
-        <v>1.868082379075896</v>
+        <v>1.397943685275216</v>
       </c>
       <c r="E6">
-        <v>0.05712412728352627</v>
+        <v>0.03471861912716025</v>
       </c>
       <c r="F6">
-        <v>1.005255661669239</v>
+        <v>1.075412434499535</v>
       </c>
       <c r="G6">
-        <v>1119503.010733844</v>
+        <v>1597048.10590881</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.701782789642914</v>
+        <v>4.274279470475237</v>
       </c>
       <c r="C7">
-        <v>1.139612978848926</v>
+        <v>0.9340526039746442</v>
       </c>
       <c r="D7">
-        <v>2.724545038021634</v>
+        <v>1.729436333106819</v>
       </c>
       <c r="E7">
-        <v>0.04308614743881599</v>
+        <v>0.0390130579976138</v>
       </c>
       <c r="F7">
-        <v>0.8870347195815622</v>
+        <v>1.417643539651134</v>
       </c>
       <c r="G7">
-        <v>1627876.840245694</v>
+        <v>1358996.70644158</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.883596474808859</v>
+        <v>2.456916981811103</v>
       </c>
       <c r="C8">
-        <v>0.9631525034693613</v>
+        <v>1.219738145862341</v>
       </c>
       <c r="D8">
-        <v>1.336243365035684</v>
+        <v>1.043815446717316</v>
       </c>
       <c r="E8">
-        <v>0.03783198190066515</v>
+        <v>0.04883549748328619</v>
       </c>
       <c r="F8">
-        <v>1.341500431701992</v>
+        <v>1.408067441334711</v>
       </c>
       <c r="G8">
-        <v>1041813.355550295</v>
+        <v>936758.2819786561</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.562118662332137</v>
+        <v>2.907441050820573</v>
       </c>
       <c r="C9">
-        <v>1.151233010046742</v>
+        <v>0.9792799712992366</v>
       </c>
       <c r="D9">
-        <v>2.149157448531799</v>
+        <v>2.238052165122389</v>
       </c>
       <c r="E9">
-        <v>0.04325491256334764</v>
+        <v>0.05076837163106544</v>
       </c>
       <c r="F9">
-        <v>0.9142444995346566</v>
+        <v>0.8243941788506869</v>
       </c>
       <c r="G9">
-        <v>2049786.510756493</v>
+        <v>1320069.731585285</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.225896505582425</v>
+        <v>2.597634226972782</v>
       </c>
       <c r="C10">
-        <v>1.169000219107796</v>
+        <v>1.111283388895246</v>
       </c>
       <c r="D10">
-        <v>2.739374245970872</v>
+        <v>1.055058256203439</v>
       </c>
       <c r="E10">
-        <v>0.03532967591640855</v>
+        <v>0.03121308264154632</v>
       </c>
       <c r="F10">
-        <v>1.304181883632968</v>
+        <v>1.261752379573861</v>
       </c>
       <c r="G10">
-        <v>2032623.665106058</v>
+        <v>1194483.389304805</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.648110433363144</v>
+        <v>3.152376969889923</v>
       </c>
       <c r="C11">
-        <v>1.144357987269431</v>
+        <v>1.178184482858028</v>
       </c>
       <c r="D11">
-        <v>2.849928083746183</v>
+        <v>2.604885073686715</v>
       </c>
       <c r="E11">
-        <v>0.0510082787782781</v>
+        <v>0.04682541151815184</v>
       </c>
       <c r="F11">
-        <v>1.408411289067067</v>
+        <v>1.234129153645905</v>
       </c>
       <c r="G11">
-        <v>995163.3315608699</v>
+        <v>1549354.31346838</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.017298133306006</v>
+        <v>4.017944509353036</v>
       </c>
       <c r="C12">
-        <v>0.9654989548287211</v>
+        <v>1.196978635034027</v>
       </c>
       <c r="D12">
-        <v>1.470536935910956</v>
+        <v>2.344794037585704</v>
       </c>
       <c r="E12">
-        <v>0.04567045478962072</v>
+        <v>0.03526878435499922</v>
       </c>
       <c r="F12">
-        <v>1.460049037762527</v>
+        <v>0.9943889987727306</v>
       </c>
       <c r="G12">
-        <v>733740.2625850242</v>
+        <v>2067234.849246941</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.504525409533779</v>
+        <v>3.474834759266952</v>
       </c>
       <c r="C13">
-        <v>1.039827166776877</v>
+        <v>0.9256474836535005</v>
       </c>
       <c r="D13">
-        <v>2.953474682503648</v>
+        <v>2.43821230849641</v>
       </c>
       <c r="E13">
-        <v>0.05605907836756106</v>
+        <v>0.03569438155288701</v>
       </c>
       <c r="F13">
-        <v>1.103738133165371</v>
+        <v>1.43346446090857</v>
       </c>
       <c r="G13">
-        <v>1486201.50260792</v>
+        <v>1325648.0209933</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.633980101912538</v>
+        <v>4.556393929045845</v>
       </c>
       <c r="C14">
-        <v>1.076310217155611</v>
+        <v>1.025716853062638</v>
       </c>
       <c r="D14">
-        <v>1.554588963556081</v>
+        <v>1.471162304454713</v>
       </c>
       <c r="E14">
-        <v>0.05174493228572595</v>
+        <v>0.0402298633108215</v>
       </c>
       <c r="F14">
-        <v>0.9635807017241163</v>
+        <v>1.193961589384514</v>
       </c>
       <c r="G14">
-        <v>1416352.808628837</v>
+        <v>1593005.128321264</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.166804804046264</v>
+        <v>3.353909448915989</v>
       </c>
       <c r="C15">
-        <v>1.047259901072306</v>
+        <v>1.164614586184391</v>
       </c>
       <c r="D15">
-        <v>2.072327204794168</v>
+        <v>1.237540892708481</v>
       </c>
       <c r="E15">
-        <v>0.05424101641517309</v>
+        <v>0.03334632136497337</v>
       </c>
       <c r="F15">
-        <v>1.403444100805683</v>
+        <v>0.816021603277431</v>
       </c>
       <c r="G15">
-        <v>856178.8469008731</v>
+        <v>1660352.368544134</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.088745943628956</v>
+        <v>3.099251395621729</v>
       </c>
       <c r="C16">
-        <v>0.9316366453072977</v>
+        <v>1.029208862202596</v>
       </c>
       <c r="D16">
-        <v>2.297888812707787</v>
+        <v>2.845109734847178</v>
       </c>
       <c r="E16">
-        <v>0.05141445641047056</v>
+        <v>0.04913728024738694</v>
       </c>
       <c r="F16">
-        <v>1.323226287300855</v>
+        <v>0.8013559079215838</v>
       </c>
       <c r="G16">
-        <v>1293961.278966991</v>
+        <v>1586001.548265771</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.424271128421633</v>
+        <v>2.530556871261763</v>
       </c>
       <c r="C17">
-        <v>1.173703299961455</v>
+        <v>1.079903348083991</v>
       </c>
       <c r="D17">
-        <v>1.601120461806157</v>
+        <v>1.522341824579672</v>
       </c>
       <c r="E17">
-        <v>0.03070191861226085</v>
+        <v>0.03380790700522393</v>
       </c>
       <c r="F17">
-        <v>0.8094957681451068</v>
+        <v>1.296266043648044</v>
       </c>
       <c r="G17">
-        <v>1807641.606498103</v>
+        <v>1187757.123898674</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.875566304443988</v>
+        <v>3.5151884263979</v>
       </c>
       <c r="C18">
-        <v>1.177884174557889</v>
+        <v>1.102791016710922</v>
       </c>
       <c r="D18">
-        <v>1.673090878317081</v>
+        <v>2.874753307898241</v>
       </c>
       <c r="E18">
-        <v>0.03649514464252027</v>
+        <v>0.0514855070707099</v>
       </c>
       <c r="F18">
-        <v>1.251210086440868</v>
+        <v>1.022263611461158</v>
       </c>
       <c r="G18">
-        <v>1121552.385256681</v>
+        <v>1667415.163698322</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.380800926916068</v>
+        <v>3.841730856350646</v>
       </c>
       <c r="C19">
-        <v>1.057303779338482</v>
+        <v>1.085079236053049</v>
       </c>
       <c r="D19">
-        <v>1.860529475247757</v>
+        <v>1.244709078694699</v>
       </c>
       <c r="E19">
-        <v>0.04176021282689933</v>
+        <v>0.05365596727085276</v>
       </c>
       <c r="F19">
-        <v>0.8008040628900086</v>
+        <v>1.311595098803686</v>
       </c>
       <c r="G19">
-        <v>1843355.862984398</v>
+        <v>1202987.620099945</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.131036104216638</v>
+        <v>4.821726951453943</v>
       </c>
       <c r="C20">
-        <v>1.072241417500893</v>
+        <v>0.9369218971336656</v>
       </c>
       <c r="D20">
-        <v>2.514748153214005</v>
+        <v>2.937676623372569</v>
       </c>
       <c r="E20">
-        <v>0.04030432445046935</v>
+        <v>0.03610825316949595</v>
       </c>
       <c r="F20">
-        <v>1.481338271858822</v>
+        <v>0.8914020090331281</v>
       </c>
       <c r="G20">
-        <v>1365440.785554473</v>
+        <v>1956291.800715591</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.573346368512898</v>
+        <v>3.041430279514644</v>
       </c>
       <c r="C21">
-        <v>1.083858627227585</v>
+        <v>1.141384973551707</v>
       </c>
       <c r="D21">
-        <v>1.78551069067518</v>
+        <v>2.47407126572396</v>
       </c>
       <c r="E21">
-        <v>0.05459507355572131</v>
+        <v>0.04777452826448959</v>
       </c>
       <c r="F21">
-        <v>1.168593806205885</v>
+        <v>1.210063497930348</v>
       </c>
       <c r="G21">
-        <v>1306167.30701443</v>
+        <v>1440851.642973528</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.213123056086097</v>
+        <v>1.87019401441586</v>
       </c>
       <c r="C22">
-        <v>1.156917000355616</v>
+        <v>1.212215512846669</v>
       </c>
       <c r="D22">
-        <v>2.287575042995986</v>
+        <v>1.635334533311949</v>
       </c>
       <c r="E22">
-        <v>0.03382383496647556</v>
+        <v>0.0396669377676403</v>
       </c>
       <c r="F22">
-        <v>1.222624448690805</v>
+        <v>0.9527412789518455</v>
       </c>
       <c r="G22">
-        <v>1376880.605493136</v>
+        <v>1239199.756434005</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.90488623957777</v>
+        <v>4.426306184102225</v>
       </c>
       <c r="C23">
-        <v>0.9890183531502048</v>
+        <v>1.059308063120533</v>
       </c>
       <c r="D23">
-        <v>1.265376088198903</v>
+        <v>2.037980074433619</v>
       </c>
       <c r="E23">
-        <v>0.05799888509501792</v>
+        <v>0.05230776445670611</v>
       </c>
       <c r="F23">
-        <v>1.205899431814188</v>
+        <v>0.8730403705351572</v>
       </c>
       <c r="G23">
-        <v>886889.84719481</v>
+        <v>1754709.811302752</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.745929188045038</v>
+        <v>3.633066076551864</v>
       </c>
       <c r="C24">
-        <v>0.9606701166784839</v>
+        <v>1.041772929573352</v>
       </c>
       <c r="D24">
-        <v>2.975571095994647</v>
+        <v>2.964421433534679</v>
       </c>
       <c r="E24">
-        <v>0.03706491462280748</v>
+        <v>0.05510635199315728</v>
       </c>
       <c r="F24">
-        <v>0.9022381278916332</v>
+        <v>1.029066555996888</v>
       </c>
       <c r="G24">
-        <v>1479753.361503529</v>
+        <v>1580466.144295158</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.352721174638969</v>
+        <v>2.027444344812591</v>
       </c>
       <c r="C25">
-        <v>1.197710189221127</v>
+        <v>1.153826734123478</v>
       </c>
       <c r="D25">
-        <v>1.310426179095131</v>
+        <v>1.972623076679294</v>
       </c>
       <c r="E25">
-        <v>0.04394882168169576</v>
+        <v>0.04476722858774612</v>
       </c>
       <c r="F25">
-        <v>1.020243274891203</v>
+        <v>1.49526374406753</v>
       </c>
       <c r="G25">
-        <v>1207231.881185862</v>
+        <v>975675.5882682558</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.091165848650755</v>
+        <v>4.808980099348481</v>
       </c>
       <c r="C26">
-        <v>1.203314401026432</v>
+        <v>1.243885237832205</v>
       </c>
       <c r="D26">
-        <v>2.909846040824168</v>
+        <v>2.31009376411614</v>
       </c>
       <c r="E26">
-        <v>0.03014460406517125</v>
+        <v>0.03794418294083693</v>
       </c>
       <c r="F26">
-        <v>1.011875144202694</v>
+        <v>0.8478251175744635</v>
       </c>
       <c r="G26">
-        <v>1676281.195231922</v>
+        <v>2437239.40731518</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.126203123728494</v>
+        <v>4.073420482210668</v>
       </c>
       <c r="C27">
-        <v>0.9275956871777384</v>
+        <v>1.131494692076949</v>
       </c>
       <c r="D27">
-        <v>1.50124809578466</v>
+        <v>2.976760902241764</v>
       </c>
       <c r="E27">
-        <v>0.04805901162046226</v>
+        <v>0.03652190036863689</v>
       </c>
       <c r="F27">
-        <v>0.8570423520478611</v>
+        <v>0.8294517798675262</v>
       </c>
       <c r="G27">
-        <v>950738.1196221964</v>
+        <v>2173626.610008222</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.515049697983035</v>
+        <v>4.638544466923575</v>
       </c>
       <c r="C28">
-        <v>1.135031535825904</v>
+        <v>1.150346810881567</v>
       </c>
       <c r="D28">
-        <v>2.505310401071946</v>
+        <v>2.770003508258737</v>
       </c>
       <c r="E28">
-        <v>0.03180392918510726</v>
+        <v>0.03934296931432254</v>
       </c>
       <c r="F28">
-        <v>0.9409148366210892</v>
+        <v>1.271458662134623</v>
       </c>
       <c r="G28">
-        <v>2209622.647654726</v>
+        <v>2081246.974401145</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.927438454855634</v>
+        <v>2.634900217435289</v>
       </c>
       <c r="C29">
-        <v>1.224903502295678</v>
+        <v>0.943005423198217</v>
       </c>
       <c r="D29">
-        <v>2.559466904533738</v>
+        <v>1.698605586631414</v>
       </c>
       <c r="E29">
-        <v>0.03820255137193176</v>
+        <v>0.02961070412041732</v>
       </c>
       <c r="F29">
-        <v>1.389855814647129</v>
+        <v>1.352243886691257</v>
       </c>
       <c r="G29">
-        <v>1289784.650273719</v>
+        <v>1128779.921957301</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.994134719815205</v>
+        <v>2.688373065069227</v>
       </c>
       <c r="C30">
-        <v>0.9381241802525888</v>
+        <v>0.9893806214518389</v>
       </c>
       <c r="D30">
-        <v>1.945148646305197</v>
+        <v>1.891136934759817</v>
       </c>
       <c r="E30">
-        <v>0.05254784234618205</v>
+        <v>0.03167191118464921</v>
       </c>
       <c r="F30">
-        <v>1.278055784389719</v>
+        <v>1.382627061944634</v>
       </c>
       <c r="G30">
-        <v>780034.9930504358</v>
+        <v>1194709.109704843</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.987700991376666</v>
+        <v>3.566063430356682</v>
       </c>
       <c r="C31">
-        <v>1.215510136922804</v>
+        <v>1.162032075618517</v>
       </c>
       <c r="D31">
-        <v>1.71379662013976</v>
+        <v>2.687831727175448</v>
       </c>
       <c r="E31">
-        <v>0.035779342812316</v>
+        <v>0.03842579911690032</v>
       </c>
       <c r="F31">
-        <v>1.075093519332187</v>
+        <v>1.286095758239742</v>
       </c>
       <c r="G31">
-        <v>1893115.931035994</v>
+        <v>1769017.216241923</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.274075317015585</v>
+        <v>1.78790630532076</v>
       </c>
       <c r="C32">
-        <v>1.184490792169402</v>
+        <v>1.198645316422411</v>
       </c>
       <c r="D32">
-        <v>2.45587345946722</v>
+        <v>1.793422407730965</v>
       </c>
       <c r="E32">
-        <v>0.05088338640115725</v>
+        <v>0.02938313841330445</v>
       </c>
       <c r="F32">
-        <v>1.428177440185586</v>
+        <v>1.165635399710854</v>
       </c>
       <c r="G32">
-        <v>1390121.126823871</v>
+        <v>1279828.531324356</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.832030162207523</v>
+        <v>4.737843328781318</v>
       </c>
       <c r="C33">
-        <v>1.103199469338908</v>
+        <v>1.188092711323307</v>
       </c>
       <c r="D33">
-        <v>1.352843001284126</v>
+        <v>2.705850915461611</v>
       </c>
       <c r="E33">
-        <v>0.03960737188782228</v>
+        <v>0.05711260890797113</v>
       </c>
       <c r="F33">
-        <v>1.286852596360547</v>
+        <v>1.402168596433023</v>
       </c>
       <c r="G33">
-        <v>1731479.335519179</v>
+        <v>1798952.642943498</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.239803143836768</v>
+        <v>1.750160998672147</v>
       </c>
       <c r="C34">
-        <v>1.022979853547402</v>
+        <v>1.148714102515651</v>
       </c>
       <c r="D34">
-        <v>1.57929654903666</v>
+        <v>2.271923992503063</v>
       </c>
       <c r="E34">
-        <v>0.05014231543080096</v>
+        <v>0.04848106461861387</v>
       </c>
       <c r="F34">
-        <v>0.8281912633802903</v>
+        <v>1.443912911127733</v>
       </c>
       <c r="G34">
-        <v>1087645.685914349</v>
+        <v>929058.6887075484</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.15418796477528</v>
+        <v>4.510189934432731</v>
       </c>
       <c r="C35">
-        <v>1.222018439623438</v>
+        <v>0.9939504591007611</v>
       </c>
       <c r="D35">
-        <v>2.208557471948134</v>
+        <v>1.491982309503004</v>
       </c>
       <c r="E35">
-        <v>0.04516561420495789</v>
+        <v>0.04955406784639448</v>
       </c>
       <c r="F35">
-        <v>0.9275650319595721</v>
+        <v>0.9329513674383145</v>
       </c>
       <c r="G35">
-        <v>1715796.131471368</v>
+        <v>1555074.243034562</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.344875524835632</v>
+        <v>2.560148863189478</v>
       </c>
       <c r="C36">
-        <v>1.115242083368698</v>
+        <v>1.25371623608367</v>
       </c>
       <c r="D36">
-        <v>2.264120363552256</v>
+        <v>1.329260947020938</v>
       </c>
       <c r="E36">
-        <v>0.04351808260928127</v>
+        <v>0.05262021735777966</v>
       </c>
       <c r="F36">
-        <v>1.169570860501696</v>
+        <v>1.222370008862116</v>
       </c>
       <c r="G36">
-        <v>1526199.021110465</v>
+        <v>1100401.843105824</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.039965494678998</v>
+        <v>3.261217117567809</v>
       </c>
       <c r="C37">
-        <v>0.9940986150071067</v>
+        <v>1.236915875842252</v>
       </c>
       <c r="D37">
-        <v>2.03672853063987</v>
+        <v>2.025184178126996</v>
       </c>
       <c r="E37">
-        <v>0.03361917739786988</v>
+        <v>0.05726823657013716</v>
       </c>
       <c r="F37">
-        <v>1.129038151707926</v>
+        <v>1.181196419703276</v>
       </c>
       <c r="G37">
-        <v>1376001.776015528</v>
+        <v>1406693.160356995</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.838109643643886</v>
+        <v>2.374712101555513</v>
       </c>
       <c r="C38">
-        <v>0.942079934296473</v>
+        <v>1.10414030607163</v>
       </c>
       <c r="D38">
-        <v>1.083646962212006</v>
+        <v>2.624848450631398</v>
       </c>
       <c r="E38">
-        <v>0.04926518402373861</v>
+        <v>0.05594786433422672</v>
       </c>
       <c r="F38">
-        <v>1.113639727715364</v>
+        <v>0.9655273474430608</v>
       </c>
       <c r="G38">
-        <v>1155594.157308947</v>
+        <v>1285661.706801874</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.803176612458437</v>
+        <v>1.97236301674697</v>
       </c>
       <c r="C39">
-        <v>1.112559754995841</v>
+        <v>1.173319339852495</v>
       </c>
       <c r="D39">
-        <v>1.140692947131973</v>
+        <v>1.104213015948546</v>
       </c>
       <c r="E39">
-        <v>0.04764934595254869</v>
+        <v>0.02991449792495313</v>
       </c>
       <c r="F39">
-        <v>1.338994449234223</v>
+        <v>1.089922835358543</v>
       </c>
       <c r="G39">
-        <v>1544893.705600422</v>
+        <v>1176026.847619755</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.665518123222176</v>
+        <v>3.904916657725415</v>
       </c>
       <c r="C40">
-        <v>1.189918114221005</v>
+        <v>1.114914990627173</v>
       </c>
       <c r="D40">
-        <v>2.938589895200514</v>
+        <v>1.999220531108887</v>
       </c>
       <c r="E40">
-        <v>0.04506627539852554</v>
+        <v>0.04157921802130062</v>
       </c>
       <c r="F40">
-        <v>1.093071871452166</v>
+        <v>1.094965353838086</v>
       </c>
       <c r="G40">
-        <v>2210769.650655041</v>
+        <v>1690149.151513779</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.935277374566794</v>
+        <v>2.251724492420851</v>
       </c>
       <c r="C41">
-        <v>1.017321219544132</v>
+        <v>0.9865029683839758</v>
       </c>
       <c r="D41">
-        <v>2.660037223313183</v>
+        <v>2.499556210278529</v>
       </c>
       <c r="E41">
-        <v>0.04113677585698545</v>
+        <v>0.04728729388602314</v>
       </c>
       <c r="F41">
-        <v>0.8769182265312466</v>
+        <v>1.437082002507926</v>
       </c>
       <c r="G41">
-        <v>1787462.593656797</v>
+        <v>967490.5627530122</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.663503176475331</v>
+        <v>1.627345293571301</v>
       </c>
       <c r="C42">
-        <v>1.090795809991602</v>
+        <v>1.191055231175488</v>
       </c>
       <c r="D42">
-        <v>2.331566324742695</v>
+        <v>1.826029766732457</v>
       </c>
       <c r="E42">
-        <v>0.03875490165535651</v>
+        <v>0.0426109580902014</v>
       </c>
       <c r="F42">
-        <v>1.357663282675249</v>
+        <v>1.336594168948229</v>
       </c>
       <c r="G42">
-        <v>1575444.692793289</v>
+        <v>972394.8342276732</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.274073971667563</v>
+        <v>4.052797281531872</v>
       </c>
       <c r="C43">
-        <v>1.000963612311869</v>
+        <v>1.13001810059509</v>
       </c>
       <c r="D43">
-        <v>2.008869126706276</v>
+        <v>1.839437048529393</v>
       </c>
       <c r="E43">
-        <v>0.03221879706087558</v>
+        <v>0.03043114464058032</v>
       </c>
       <c r="F43">
-        <v>1.133559316636364</v>
+        <v>1.070258819068697</v>
       </c>
       <c r="G43">
-        <v>1712665.329706141</v>
+        <v>1879959.710388355</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.467370785996631</v>
+        <v>2.439157742768108</v>
       </c>
       <c r="C44">
-        <v>1.028193924360208</v>
+        <v>1.097997898208245</v>
       </c>
       <c r="D44">
-        <v>1.134368226110798</v>
+        <v>1.419097819512357</v>
       </c>
       <c r="E44">
-        <v>0.04205426000483947</v>
+        <v>0.05127862847086236</v>
       </c>
       <c r="F44">
-        <v>1.192281114447434</v>
+        <v>1.153140771186387</v>
       </c>
       <c r="G44">
-        <v>1226103.778274735</v>
+        <v>1001109.32490985</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.010290301561701</v>
+        <v>4.507621139054393</v>
       </c>
       <c r="C45">
-        <v>1.2071849556831</v>
+        <v>1.138530913811303</v>
       </c>
       <c r="D45">
-        <v>1.439511314908554</v>
+        <v>2.104588384948692</v>
       </c>
       <c r="E45">
-        <v>0.0425439908083076</v>
+        <v>0.04338689500057324</v>
       </c>
       <c r="F45">
-        <v>1.074008416295572</v>
+        <v>0.9744823916429723</v>
       </c>
       <c r="G45">
-        <v>1427541.846811185</v>
+        <v>1966871.583556603</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.978377782423352</v>
+        <v>3.446938819708726</v>
       </c>
       <c r="C46">
-        <v>1.246247141253796</v>
+        <v>0.9751718245447882</v>
       </c>
       <c r="D46">
-        <v>2.417326943655657</v>
+        <v>2.662265534654535</v>
       </c>
       <c r="E46">
-        <v>0.05503162539152565</v>
+        <v>0.03193157574593905</v>
       </c>
       <c r="F46">
-        <v>1.416428950297169</v>
+        <v>0.8405183824583466</v>
       </c>
       <c r="G46">
-        <v>1607633.776248856</v>
+        <v>1690337.798751298</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.308395787470129</v>
+        <v>1.957188481607026</v>
       </c>
       <c r="C47">
-        <v>1.027805578254415</v>
+        <v>0.9586900990384827</v>
       </c>
       <c r="D47">
-        <v>1.815362028529784</v>
+        <v>2.39814929003202</v>
       </c>
       <c r="E47">
-        <v>0.0529299190300891</v>
+        <v>0.03816699691022926</v>
       </c>
       <c r="F47">
-        <v>1.497960958147791</v>
+        <v>1.361505122863489</v>
       </c>
       <c r="G47">
-        <v>1280809.41942551</v>
+        <v>998584.141373659</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.728744901007668</v>
+        <v>2.326966988656653</v>
       </c>
       <c r="C48">
-        <v>1.158406381865133</v>
+        <v>1.210258789613063</v>
       </c>
       <c r="D48">
-        <v>2.629115248643429</v>
+        <v>1.76433048743218</v>
       </c>
       <c r="E48">
-        <v>0.04650449328144547</v>
+        <v>0.03540455500065755</v>
       </c>
       <c r="F48">
-        <v>1.480966003722769</v>
+        <v>0.9057820656570026</v>
       </c>
       <c r="G48">
-        <v>1013464.594648235</v>
+        <v>1473201.264302658</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.872664118698779</v>
+        <v>4.159427182443618</v>
       </c>
       <c r="C49">
-        <v>0.9864194529597777</v>
+        <v>1.073217358225107</v>
       </c>
       <c r="D49">
-        <v>2.403916261738844</v>
+        <v>2.796578647396704</v>
       </c>
       <c r="E49">
-        <v>0.03027764510045232</v>
+        <v>0.04217505305169404</v>
       </c>
       <c r="F49">
-        <v>0.9552815095871917</v>
+        <v>1.118283417652959</v>
       </c>
       <c r="G49">
-        <v>1745535.665536854</v>
+        <v>1847074.935100133</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.778752562148461</v>
+        <v>2.817876373563843</v>
       </c>
       <c r="C50">
-        <v>1.088683770498243</v>
+        <v>1.004336577324684</v>
       </c>
       <c r="D50">
-        <v>1.20136750800808</v>
+        <v>1.894627767386982</v>
       </c>
       <c r="E50">
-        <v>0.05049615543799351</v>
+        <v>0.0455060588065226</v>
       </c>
       <c r="F50">
-        <v>1.465006323915192</v>
+        <v>1.388128275050686</v>
       </c>
       <c r="G50">
-        <v>896338.38919372</v>
+        <v>1053254.812092316</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.826725806173629</v>
+        <v>1.810535648871894</v>
       </c>
       <c r="C51">
-        <v>1.219642544382527</v>
+        <v>0.9632983120181112</v>
       </c>
       <c r="D51">
-        <v>2.612019168207772</v>
+        <v>2.142648159528057</v>
       </c>
       <c r="E51">
-        <v>0.05740027983253568</v>
+        <v>0.03236547192140934</v>
       </c>
       <c r="F51">
-        <v>0.868291242911424</v>
+        <v>1.243536805165468</v>
       </c>
       <c r="G51">
-        <v>1604983.511960757</v>
+        <v>1036748.299318667</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.820408773958682</v>
+        <v>2.285714881217453</v>
       </c>
       <c r="C52">
-        <v>1.007465230227044</v>
+        <v>0.967158655991714</v>
       </c>
       <c r="D52">
-        <v>2.80395098365551</v>
+        <v>2.256546015248789</v>
       </c>
       <c r="E52">
-        <v>0.05557195852630381</v>
+        <v>0.04432096613619758</v>
       </c>
       <c r="F52">
-        <v>0.9114272593483078</v>
+        <v>0.9510817036795775</v>
       </c>
       <c r="G52">
-        <v>1104412.683634406</v>
+        <v>1154697.648915158</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.677257853701055</v>
+        <v>3.887540376236222</v>
       </c>
       <c r="C53">
-        <v>0.9505954263264911</v>
+        <v>1.06733897732506</v>
       </c>
       <c r="D53">
-        <v>2.119816228111476</v>
+        <v>1.450516974822019</v>
       </c>
       <c r="E53">
-        <v>0.05569376756301916</v>
+        <v>0.03061948009105296</v>
       </c>
       <c r="F53">
-        <v>1.144924500084045</v>
+        <v>1.004909857629412</v>
       </c>
       <c r="G53">
-        <v>778606.0496501602</v>
+        <v>1669449.90957693</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.907795679251516</v>
+        <v>2.796447966019012</v>
       </c>
       <c r="C54">
-        <v>1.043373693076466</v>
+        <v>1.02158311253875</v>
       </c>
       <c r="D54">
-        <v>2.357580192829116</v>
+        <v>1.937312399327191</v>
       </c>
       <c r="E54">
-        <v>0.04973789823743999</v>
+        <v>0.04377896886040575</v>
       </c>
       <c r="F54">
-        <v>0.9420831241910843</v>
+        <v>0.8805502310929489</v>
       </c>
       <c r="G54">
-        <v>1119305.660866699</v>
+        <v>1325723.297732191</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.584678861526555</v>
+        <v>3.17691249822078</v>
       </c>
       <c r="C55">
-        <v>1.011920427285199</v>
+        <v>1.033998486871861</v>
       </c>
       <c r="D55">
-        <v>1.640142490294879</v>
+        <v>2.361897713258251</v>
       </c>
       <c r="E55">
-        <v>0.04149900994128151</v>
+        <v>0.05548261615297091</v>
       </c>
       <c r="F55">
-        <v>1.439501350721282</v>
+        <v>1.052826760086864</v>
       </c>
       <c r="G55">
-        <v>991064.8517721153</v>
+        <v>1311870.544220169</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.368588385108795</v>
+        <v>3.408290470579741</v>
       </c>
       <c r="C56">
-        <v>1.241500584782248</v>
+        <v>0.9555770874181222</v>
       </c>
       <c r="D56">
-        <v>1.993430239918621</v>
+        <v>1.019407870132564</v>
       </c>
       <c r="E56">
-        <v>0.04680357611355386</v>
+        <v>0.05328252575207314</v>
       </c>
       <c r="F56">
-        <v>1.063599092064025</v>
+        <v>1.127863434316543</v>
       </c>
       <c r="G56">
-        <v>1972238.317699247</v>
+        <v>1012023.321357887</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.382964323416067</v>
+        <v>2.194665594166434</v>
       </c>
       <c r="C57">
-        <v>1.079437990409525</v>
+        <v>1.092849745999545</v>
       </c>
       <c r="D57">
-        <v>2.818161257388565</v>
+        <v>2.182616726357367</v>
       </c>
       <c r="E57">
-        <v>0.03605779868488118</v>
+        <v>0.05667084175697945</v>
       </c>
       <c r="F57">
-        <v>1.09693237336537</v>
+        <v>1.248184554215095</v>
       </c>
       <c r="G57">
-        <v>1734517.761128162</v>
+        <v>969930.9049747506</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.728226544230326</v>
+        <v>4.175511229454822</v>
       </c>
       <c r="C58">
-        <v>1.128871876155931</v>
+        <v>0.9486960121052032</v>
       </c>
       <c r="D58">
-        <v>1.060769469398193</v>
+        <v>1.552233528521561</v>
       </c>
       <c r="E58">
-        <v>0.0313660645136184</v>
+        <v>0.04813333790593276</v>
       </c>
       <c r="F58">
-        <v>1.027851566315941</v>
+        <v>1.454758635151489</v>
       </c>
       <c r="G58">
-        <v>1616105.081678389</v>
+        <v>1185802.584855516</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.09753158302599</v>
+        <v>3.755717697272181</v>
       </c>
       <c r="C59">
-        <v>0.9457859002198674</v>
+        <v>1.225414528759158</v>
       </c>
       <c r="D59">
-        <v>2.871089572366945</v>
+        <v>2.125356130170882</v>
       </c>
       <c r="E59">
-        <v>0.03929694253794903</v>
+        <v>0.04063086078005038</v>
       </c>
       <c r="F59">
-        <v>1.31710409435264</v>
+        <v>1.476165797564527</v>
       </c>
       <c r="G59">
-        <v>1337358.053223278</v>
+        <v>1657321.259672991</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.303931277624457</v>
+        <v>2.756358503237277</v>
       </c>
       <c r="C60">
-        <v>1.065391622306622</v>
+        <v>1.000409961792608</v>
       </c>
       <c r="D60">
-        <v>2.461637056103623</v>
+        <v>1.298959930482313</v>
       </c>
       <c r="E60">
-        <v>0.02953721850621515</v>
+        <v>0.04626880393173881</v>
       </c>
       <c r="F60">
-        <v>1.213063555659152</v>
+        <v>0.8608386852748429</v>
       </c>
       <c r="G60">
-        <v>1658765.14400707</v>
+        <v>1154692.924416395</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.221857782488179</v>
+        <v>2.105031701326495</v>
       </c>
       <c r="C61">
-        <v>1.165259520411815</v>
+        <v>1.008666557691556</v>
       </c>
       <c r="D61">
-        <v>2.575833759630843</v>
+        <v>2.553621971670156</v>
       </c>
       <c r="E61">
-        <v>0.05389072340086842</v>
+        <v>0.04117987202004759</v>
       </c>
       <c r="F61">
-        <v>1.255344062953205</v>
+        <v>1.322799687152741</v>
       </c>
       <c r="G61">
-        <v>1433245.788225866</v>
+        <v>1090587.292372158</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.690068281102903</v>
+        <v>2.96257823942979</v>
       </c>
       <c r="C62">
-        <v>0.9542936118052946</v>
+        <v>0.9446844729641712</v>
       </c>
       <c r="D62">
-        <v>1.521163091594922</v>
+        <v>2.425174281104497</v>
       </c>
       <c r="E62">
-        <v>0.04837290190528606</v>
+        <v>0.03687030226311436</v>
       </c>
       <c r="F62">
-        <v>0.9915483812202388</v>
+        <v>1.346250648198355</v>
       </c>
       <c r="G62">
-        <v>1524971.642988245</v>
+        <v>1243562.084623594</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.034389617878441</v>
+        <v>3.021064431017359</v>
       </c>
       <c r="C63">
-        <v>1.033169648127053</v>
+        <v>1.012579632964382</v>
       </c>
       <c r="D63">
-        <v>1.952448382446363</v>
+        <v>2.819015263516557</v>
       </c>
       <c r="E63">
-        <v>0.05675679163150325</v>
+        <v>0.05188675058995837</v>
       </c>
       <c r="F63">
-        <v>0.8341379947669832</v>
+        <v>1.309946700590214</v>
       </c>
       <c r="G63">
-        <v>1571070.511531987</v>
+        <v>1238604.554781181</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.475477096069034</v>
+        <v>1.6769570576454</v>
       </c>
       <c r="C64">
-        <v>1.236538059575691</v>
+        <v>1.203029622910775</v>
       </c>
       <c r="D64">
-        <v>1.28706403724801</v>
+        <v>1.620264990589916</v>
       </c>
       <c r="E64">
-        <v>0.02937268382509839</v>
+        <v>0.05039272447279568</v>
       </c>
       <c r="F64">
-        <v>1.270058098222513</v>
+        <v>0.9239678445376543</v>
       </c>
       <c r="G64">
-        <v>1371856.776291163</v>
+        <v>1067523.691558341</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.581424372242547</v>
+        <v>2.864910023160486</v>
       </c>
       <c r="C65">
-        <v>1.252815212901098</v>
+        <v>1.051538485421532</v>
       </c>
       <c r="D65">
-        <v>1.40668613039191</v>
+        <v>2.593462078339934</v>
       </c>
       <c r="E65">
-        <v>0.04463032746379225</v>
+        <v>0.03288479938710343</v>
       </c>
       <c r="F65">
-        <v>1.241962892597628</v>
+        <v>0.9881256478585221</v>
       </c>
       <c r="G65">
-        <v>1223908.92351167</v>
+        <v>1584110.53909107</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.800755492383458</v>
+        <v>3.700591710470826</v>
       </c>
       <c r="C66">
-        <v>1.106136850901619</v>
+        <v>0.9719098161671913</v>
       </c>
       <c r="D66">
-        <v>1.684594498961377</v>
+        <v>2.200243532106576</v>
       </c>
       <c r="E66">
-        <v>0.04598722379998918</v>
+        <v>0.03315710960220718</v>
       </c>
       <c r="F66">
-        <v>1.229374655951158</v>
+        <v>1.177917599505358</v>
       </c>
       <c r="G66">
-        <v>1453800.837192853</v>
+        <v>1528463.423249945</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.609190760919796</v>
+        <v>4.704860031950022</v>
       </c>
       <c r="C67">
-        <v>1.249285457033702</v>
+        <v>1.049349578469742</v>
       </c>
       <c r="D67">
-        <v>1.896666921923464</v>
+        <v>2.917532044509805</v>
       </c>
       <c r="E67">
-        <v>0.035085600165629</v>
+        <v>0.05432993176407497</v>
       </c>
       <c r="F67">
-        <v>0.9825289092653523</v>
+        <v>0.8998385435754194</v>
       </c>
       <c r="G67">
-        <v>2247118.326815487</v>
+        <v>1960206.752468349</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.178665133079279</v>
+        <v>4.657326599448508</v>
       </c>
       <c r="C68">
-        <v>1.097805294210577</v>
+        <v>1.071868018217675</v>
       </c>
       <c r="D68">
-        <v>1.242278226548156</v>
+        <v>1.161778905234252</v>
       </c>
       <c r="E68">
-        <v>0.05368284065426209</v>
+        <v>0.04406262609068975</v>
       </c>
       <c r="F68">
-        <v>1.297885061548523</v>
+        <v>1.483982831461783</v>
       </c>
       <c r="G68">
-        <v>1313017.508111857</v>
+        <v>1436566.816013417</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.682976666782591</v>
+        <v>4.236967275001419</v>
       </c>
       <c r="C69">
-        <v>1.059722438160273</v>
+        <v>1.170447523362374</v>
       </c>
       <c r="D69">
-        <v>1.025282058875638</v>
+        <v>1.284442022238993</v>
       </c>
       <c r="E69">
-        <v>0.04736623750163024</v>
+        <v>0.04110487342105899</v>
       </c>
       <c r="F69">
-        <v>0.9777962127643633</v>
+        <v>1.009813739628661</v>
       </c>
       <c r="G69">
-        <v>1339663.356115674</v>
+        <v>1760928.238594749</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.764390155509213</v>
+        <v>4.362326097097835</v>
       </c>
       <c r="C70">
-        <v>0.9730130382741868</v>
+        <v>1.016134359934261</v>
       </c>
       <c r="D70">
-        <v>1.380936153976869</v>
+        <v>2.537515009053225</v>
       </c>
       <c r="E70">
-        <v>0.05247587714512961</v>
+        <v>0.05459458032725162</v>
       </c>
       <c r="F70">
-        <v>1.054642988932589</v>
+        <v>0.9183836460341326</v>
       </c>
       <c r="G70">
-        <v>763761.5094670851</v>
+        <v>1717658.896655873</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.507766100909736</v>
+        <v>2.067797846558783</v>
       </c>
       <c r="C71">
-        <v>1.20093600645874</v>
+        <v>1.24249914531256</v>
       </c>
       <c r="D71">
-        <v>1.175176362679869</v>
+        <v>1.667176610031972</v>
       </c>
       <c r="E71">
-        <v>0.03434389297217151</v>
+        <v>0.05766123886040592</v>
       </c>
       <c r="F71">
-        <v>1.186789537857189</v>
+        <v>1.064362045171527</v>
       </c>
       <c r="G71">
-        <v>1274551.330297561</v>
+        <v>1056174.492992705</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.453141242332604</v>
+        <v>3.298443362238388</v>
       </c>
       <c r="C72">
-        <v>1.125870378009949</v>
+        <v>1.181731539558065</v>
       </c>
       <c r="D72">
-        <v>1.756732207521061</v>
+        <v>1.744279245971948</v>
       </c>
       <c r="E72">
-        <v>0.03294249695688908</v>
+        <v>0.056397594371075</v>
       </c>
       <c r="F72">
-        <v>0.8566353640463753</v>
+        <v>1.465387315648855</v>
       </c>
       <c r="G72">
-        <v>2026843.98363566</v>
+        <v>1139514.117378864</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.966087101160473</v>
+        <v>4.315925960914296</v>
       </c>
       <c r="C73">
-        <v>0.9811907129748721</v>
+        <v>1.039773557410228</v>
       </c>
       <c r="D73">
-        <v>1.772577979588931</v>
+        <v>1.127279622677123</v>
       </c>
       <c r="E73">
-        <v>0.03461613772815916</v>
+        <v>0.05408026127633163</v>
       </c>
       <c r="F73">
-        <v>1.371077427567577</v>
+        <v>1.148201099642811</v>
       </c>
       <c r="G73">
-        <v>1193169.711073731</v>
+        <v>1332124.39371912</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.735138118607052</v>
+        <v>1.922876118642426</v>
       </c>
       <c r="C74">
-        <v>1.119059208471895</v>
+        <v>1.223064117471855</v>
       </c>
       <c r="D74">
-        <v>2.084764435368612</v>
+        <v>1.593052792800733</v>
       </c>
       <c r="E74">
-        <v>0.03729861449738081</v>
+        <v>0.04299265589900897</v>
       </c>
       <c r="F74">
-        <v>1.363938369145214</v>
+        <v>1.370262102839434</v>
       </c>
       <c r="G74">
-        <v>1890807.601536241</v>
+        <v>1010116.291852079</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.374130159413028</v>
+        <v>3.208078452105391</v>
       </c>
       <c r="C75">
-        <v>1.188792473849536</v>
+        <v>1.086351829609935</v>
       </c>
       <c r="D75">
-        <v>2.69296129121217</v>
+        <v>1.17226894809986</v>
       </c>
       <c r="E75">
-        <v>0.04897946102829756</v>
+        <v>0.03412371331495191</v>
       </c>
       <c r="F75">
-        <v>1.154455454391344</v>
+        <v>1.043462320216589</v>
       </c>
       <c r="G75">
-        <v>1369466.739532168</v>
+        <v>1397211.657965325</v>
       </c>
     </row>
   </sheetData>
